--- a/Gpt Test.xlsx
+++ b/Gpt Test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDANT PCE\SLR FRONTEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16C9869-53D8-44D0-8B15-BA8EBCE25383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBEE5C-22D9-4582-B18E-72442B011FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="274">
   <si>
     <t>Title</t>
   </si>
@@ -69,120 +72,201 @@
     <t>Database</t>
   </si>
   <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Embase</t>
+  </si>
+  <si>
+    <t>Exclusion reason</t>
+  </si>
+  <si>
     <t>Include</t>
   </si>
   <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Embase</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Association of angiotensin-converting enzyme DD genotype with blood pressure sensitivity to weight loss</t>
+  </si>
+  <si>
+    <t>Background: Weight loss and sodium reduction are useful nonpharmacologic interventions in the management of hypertension. Salt sensitivity - the degree of blood pressure change in response to a change in sodium load - has been extensively explored. However, the determinants of the extent of blood pressure change after weight reduction have not been evaluated. Methods: We studied the relationship of the angiotensin-converting enzyme insertion-deletion (ACE I/D) polymorphism to blood pressure change after weight loss in the Trial Of Nonpharmacologic interventions in the Elderly (TONE). We focused on the 86 overweight white hypertensive TONE participants who were randomized to weight loss only. Results: A similar weight reduction was observed across all ACE genotypes, whereas a significantly greater decrease in blood pressure after weight loss was seen among participants with the DD genotype. In addition, DD participants had a higher probability of remaining normotensive for the duration of the trial. Conclusions: The DD genotype may be associated with higher "weight sensitivity" in overweight white hypertensive persons, potentially through reduced activity of the renin-angiotensin and sympathetic systems after weight loss.</t>
+  </si>
+  <si>
+    <t>Intervention or exposure</t>
+  </si>
+  <si>
+    <t>Kostis J.B., Wilson A.C., Hooper W.C., Harrison K.W., Philipp C.S., Appel L.J., Espeland M.A., Folmar S., Johnson K.C.</t>
+  </si>
+  <si>
+    <t>American Heart Journal</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>10.1016/S0002-8703(02)00132-1</t>
+  </si>
+  <si>
+    <t>Temporal trend and attributable risk factors of stroke burden in China, 1990–2019: an analysis for the Global Burden of Disease Study 2019</t>
+  </si>
+  <si>
+    <t>Background: Understanding the temporal trend of the disease burden of stroke and its attributable risk factors in China, especially at provincial levels, is important for effective prevention strategies and improvement. The aim of this analysis from the Global Burden of Diseases, Injuries, and Risk Factors Study (GBD) is to investigate the disease burden of stroke and its risk factors at national and provincial levels in China from 1990 to 2019. Methods: Following the methodology in the GBD 2019, the incidence, prevalence, mortality, and disability-adjusted life-years (DALYs) of stroke cases in the Chinese population were estimated by sex, age, year, stroke subtypes (ischaemic stroke, intracerebral haemorrhage, and subarachnoid haemorrhage), and across 33 provincial administrative units in China from 1990 to 2019. Attributable mortality and DALYs of underlying risk factors were calculated by a comparative risk assessment. Findings: In 2019, there were 3·94 million (95% uncertainty interval 3·43–4·58) new stroke cases in China. The incidence rate of stroke increased by 86·0% (73·2–99·0) from 1990, reaching 276·7 (241·3–322·0) per 100 000 population in 2019. The age-standardised incidence rate declined by 9·3% (3·3–15·5) from 1990 to 2019. Among 28·76 million (25·60–32·21) prevalent cases of stroke in 2019, 24·18 million (20·80–27·87) were ischaemic stroke, 4·36 million (3·69–5·05) were intracerebral haemorrhage, and 1·58 million (1·32–1·91) were subarachnoid haemorrhage. The prevalence rate increased by 106·0% (93·7–118·8) and age-standardised prevalence rate increased by 13·2% (7·7–19·1) from 1990 to 2019. In 2019, there were 2·19 million (1·89–2·51) deaths and 45·9 million (39·8–52·3) DALYs due to stroke. The mortality rate increased by 32·3% (8·6–59·0) from 1990 to 2019. Over the same period, the age-standardised mortality rate decreased by 39·8% (28·6–50·7) and the DALY rate decreased by 41·6% (30·7–50·9). High systolic blood pressure, ambient particulate matter pollution exposure, smoking, and diet high in sodium were four major risk factors for stroke burden in 2019. Moreover, we found marked differences of stroke burden and attributable risk factors across provinces in China from 1990 to 2019. Interpretation: The disease burden of stroke is still severe in China, although the age-standardised incidence and mortality rates have decreased since 1990. The stroke burden in China might be reduced through blood pressure management, lifestyle interventions, and air pollution control. Moreover, because substantial heterogeneity of stroke burden existed in different provinces, improved health care is needed in provinces with heavy stroke burden. Funding: National Key Research and Development Program of China and Taikang Yicai Public Health and Epidemic Control Fund.</t>
+  </si>
+  <si>
+    <t>Ma Q., Li R., Wang L., Yin P., Wang Y., Yan C., Ren Y., Qian Z., Vaughn M.G., McMillin S.E., Hay S.I., Naghavi M., Cai M., Wang C., Zhang Z., Zhou M., Lin H., Yang Y.</t>
+  </si>
+  <si>
+    <t>The Lancet Public Health</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>e897</t>
+  </si>
+  <si>
+    <t>e906</t>
+  </si>
+  <si>
+    <t>10.1016/S2468-2667(21)00228-0</t>
+  </si>
+  <si>
+    <t>Community Health Awareness of Diabetes (CHAD): Description of a Community-Wide Diabetes Awareness Demonstration Program and its Feasibility</t>
+  </si>
+  <si>
+    <t>Objective: This article describes the Community Health Awareness Diabetes (CHAD) program and its feasibility. Developing and testing the feasibility of strategies to detect diabetes in the community is an important primary care issue. The CHAD program was designed to be a feasible and reproducible, low-cost community program to identify high-risk individuals for subsequent diabetes screening by their family doctors. Methods: Participants from Grimsby, Ontario, older than age 40, were invited to self-risk-assess for diabetes using a validated questionnaire and 2 near-patient blood tests (capillary blood glucose and glycosylated hemoglobin). Some participants were self-selected, having seen advertising for the program, others were invited by a letter from their family doctor. None of the participants had pre-existing diabetes. Numbers and characteristics of participants, numbers found at risk and satisfaction of participants were examined. Results: There were 588 participants in CHAD. Of these, the majority had received invitation letters, the majority of participants were seniors and were females, 526 did not have pre-existing diabetes and 16% of participants (n=84 of 526) were identified as being at high risk for diabetes. Participants at high risk of diabetes had significantly more modifiable risk factors, including higher fat, fast food and salt intake, and higher systolic blood pressure. Satisfaction with the program was high. Conclusions: The CHAD program was feasible and participants were satisfied with it. Participants had a large number of modifiable risk factors. This program could be repeated in other communities and modified to suit the infrastructure of the area. © 2013 Canadian Diabetes Association.</t>
+  </si>
+  <si>
+    <t>Agarwal G., Kaczorowski J., Hanna S.</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Diabetes</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>10.1016/j.jcjd.2013.07.001</t>
+  </si>
+  <si>
+    <t>The effects of intermittent fasting on nighttime blood pressure levels</t>
+  </si>
+  <si>
+    <t>Hypertension, a preventable disease with a high prevalence, is frequently seen in obese patients with cardiovascular risk factors. Our study aimed to investigate the effect of an intermittent fasting regimen on nighttime blood pressure levels. Patients who applied to Karabuk University Faculty of Medicine Training and Research Hospital Cardiology and Family Medicine Polyclinic between January and March 2021 and were followed up for 24 hours on an outpatient basis were included in this self-controlled interventional study. Patients underwent a second 24-hour Holter blood pressure follow-up after one month of diet, and the results were compared. The study was conducted with 30 subjects who adhered to a one-month intermittent fasting regimen. 63.3% of the patients were male, and the mean age was 54.60 ± 9.71 years. One month later, 13 patients whose nighttime blood pressure improved were assigned to Group 1 and 17 patients to Group 2. There was no important variance between the groups in terms of gender, age, height, waist circumference and BMI (p=0.609, p=0.105 and p=0.087, in order of). Mean VA and BSA were considerably lower in Group 2 (p=0.027 and p=0.045, in order of). HT duration was longer in Group 1 (p=0.001). There was no important variance between the groups in terms of smoking, alcohol use, average daily sleep time, salt intake awareness and exercise habits. The rate of snacking habits in Group 2 was statistically considerably higher (p=0.033). Intermittent fasting may be beneficial in preventing nocturnal hypertension.</t>
+  </si>
+  <si>
+    <t>Yilmaz Yücel A.H., Adar A., Korkut B., Kalem P., İncı H., Adahan D.</t>
+  </si>
+  <si>
+    <t>Journal of Experimental and Clinical Medicine (Turkey)</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>10.52142/omujecm.39.3.38</t>
+  </si>
+  <si>
+    <t>Effect of low energy diet and weight loss on major risk factors, central obesity and associated disturbances in patients with essential hypertension</t>
+  </si>
+  <si>
+    <t>Obesity, especially central, increases the risk of hypertension, hypertriglyceridaemia and diabetes to a significant extent. To determine whether dietary weight reduction can reduce blood pressure (BP) and other cardiovascular risk factors, 217 hypertensives were randomised to receive either 1600 Kcal/day diet (group A, n = 108) or the usual 2100 Kcal/day diet (group B, n = 109). Sodium intake and physical activity were kept similar in both groups. After 16 weeks of follow-up, patients in group A received significantly less energy leading to a 2.8 kg net reduction in mean weight in association with a significant net decrease in mean SEP and DBP (7.5/6.5 mm Hg) compared with nonsignificant changes in group B. There was a significant net decrease in mean total cholesterol (7.0%), low-density lipoprotein (LDL)-cholesterol (7.9%) and triglycerides (8.0%), with a significant net increase in high-density lipoprotein (HDL)-cholesterol (4.0%) in group A compared with group B. New risk factors such as glucose intolerance (8.0%) and central obesity (waist-hip girth ratio, 0.021) showed a significant net reduction compared with group B. Patients with central obesity and other associated disturbances showed maximal reduction in BP and other cardiovascular risk factors with a significantly greater increase in HDL-cholesterol. Mean doses of drugs were similar at entry to the study as well as after 16 weeks in both groups. It is possible that weight reduction due to a low caloric diet can moderate central obesity and associated disturbances in hypertensive subjects.</t>
+  </si>
+  <si>
+    <t>Singh R.B., Niaz M.A., Bishnoi I., Singh U., Begum R., Rastogi S.S.</t>
+  </si>
+  <si>
+    <t>Journal of Human Hypertension</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Factors affecting eradication failure in proton pump inhibitor (PPI)-based triple therapy for helicobacter pylori infection</t>
+  </si>
+  <si>
+    <t>Introduction: The standard triple therapy for Helicobacter pylori (H. pylori) infection consist proton pump inhibitor (PPI) with two antibiotics such as clarithromycin (CRM) and amoxicillin. However, the eradication failure of this regimen has increased in several European countries and Korea. CRM resistance is considered as the major cause of eradication failure, but the effect of CYP2C19 genotype of PPI metabolism is controversial. Aims and Methods: The aim of this study was to examine several factors affecting eradication failure. One-hundred subjects were consecutively enrolled in a tertiary hospital, Seoul, Korea. CRM resistance was evaluated by A2142G and A2143G mutation in 23S rRNA of H. pylori. The polymorphisms of G681A (exon 5) and G636A (exon 4) of CYP2C19 gene were examined by PCR-RFLP. CYP2C19 genotypes were classified into rapid metabolizer (RM), intermediate metabolizer (IM), and poor metabolizer (PM). In addition, several parameters such as age, sex, body mass index (BMI), DM, hypertension, alcohol drinking, smoking habits, salt intake and compliance were examined. Results: Eradication success was observed in 73/100 cases (73%), and eradication failure was 27/100 cases (27%). CRM resistance was in 14/100 cases. Among eradication failure, CRM resistance was 13/27 cases (48.1%). Only one case with CRM resistance was successfully eradicated. Rapid metabolizer of CYP2C19 was observed in 13/27 cases (48.1%) with eradication failure. Two cases without CRM resistance were eradication failure due to poor drug compliance. Conclusion: In Korea, factors affecting eradication failure in PPI-based triple therapy for H. pylori infection were CRM resistance, RM of CYP2C19, and poor compliance.</t>
+  </si>
+  <si>
+    <t>Objective not of interest</t>
+  </si>
+  <si>
+    <t>Chang Y.W., Byun J., Kim J., Jang J.Y.</t>
+  </si>
+  <si>
+    <t>Helicobacter</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>92</t>
   </si>
   <si>
     <t>Conference Abstract</t>
   </si>
   <si>
-    <t>Exclusion reason</t>
-  </si>
-  <si>
-    <t>Association of angiotensin-converting enzyme DD genotype with blood pressure sensitivity to weight loss</t>
-  </si>
-  <si>
-    <t>Background: Weight loss and sodium reduction are useful nonpharmacologic interventions in the management of hypertension. Salt sensitivity - the degree of blood pressure change in response to a change in sodium load - has been extensively explored. However, the determinants of the extent of blood pressure change after weight reduction have not been evaluated. Methods: We studied the relationship of the angiotensin-converting enzyme insertion-deletion (ACE I/D) polymorphism to blood pressure change after weight loss in the Trial Of Nonpharmacologic interventions in the Elderly (TONE). We focused on the 86 overweight white hypertensive TONE participants who were randomized to weight loss only. Results: A similar weight reduction was observed across all ACE genotypes, whereas a significantly greater decrease in blood pressure after weight loss was seen among participants with the DD genotype. In addition, DD participants had a higher probability of remaining normotensive for the duration of the trial. Conclusions: The DD genotype may be associated with higher "weight sensitivity" in overweight white hypertensive persons, potentially through reduced activity of the renin-angiotensin and sympathetic systems after weight loss.</t>
-  </si>
-  <si>
-    <t>Exclude</t>
-  </si>
-  <si>
-    <t>Intervention or exposure</t>
-  </si>
-  <si>
-    <t>Kostis J.B., Wilson A.C., Hooper W.C., Harrison K.W., Philipp C.S., Appel L.J., Espeland M.A., Folmar S., Johnson K.C.</t>
-  </si>
-  <si>
-    <t>American Heart Journal</t>
-  </si>
-  <si>
-    <t>10.1016/S0002-8703(02)00132-1</t>
-  </si>
-  <si>
-    <t>Temporal trend and attributable risk factors of stroke burden in China, 1990–2019: an analysis for the Global Burden of Disease Study 2019</t>
-  </si>
-  <si>
-    <t>Background: Understanding the temporal trend of the disease burden of stroke and its attributable risk factors in China, especially at provincial levels, is important for effective prevention strategies and improvement. The aim of this analysis from the Global Burden of Diseases, Injuries, and Risk Factors Study (GBD) is to investigate the disease burden of stroke and its risk factors at national and provincial levels in China from 1990 to 2019. Methods: Following the methodology in the GBD 2019, the incidence, prevalence, mortality, and disability-adjusted life-years (DALYs) of stroke cases in the Chinese population were estimated by sex, age, year, stroke subtypes (ischaemic stroke, intracerebral haemorrhage, and subarachnoid haemorrhage), and across 33 provincial administrative units in China from 1990 to 2019. Attributable mortality and DALYs of underlying risk factors were calculated by a comparative risk assessment. Findings: In 2019, there were 3·94 million (95% uncertainty interval 3·43–4·58) new stroke cases in China. The incidence rate of stroke increased by 86·0% (73·2–99·0) from 1990, reaching 276·7 (241·3–322·0) per 100 000 population in 2019. The age-standardised incidence rate declined by 9·3% (3·3–15·5) from 1990 to 2019. Among 28·76 million (25·60–32·21) prevalent cases of stroke in 2019, 24·18 million (20·80–27·87) were ischaemic stroke, 4·36 million (3·69–5·05) were intracerebral haemorrhage, and 1·58 million (1·32–1·91) were subarachnoid haemorrhage. The prevalence rate increased by 106·0% (93·7–118·8) and age-standardised prevalence rate increased by 13·2% (7·7–19·1) from 1990 to 2019. In 2019, there were 2·19 million (1·89–2·51) deaths and 45·9 million (39·8–52·3) DALYs due to stroke. The mortality rate increased by 32·3% (8·6–59·0) from 1990 to 2019. Over the same period, the age-standardised mortality rate decreased by 39·8% (28·6–50·7) and the DALY rate decreased by 41·6% (30·7–50·9). High systolic blood pressure, ambient particulate matter pollution exposure, smoking, and diet high in sodium were four major risk factors for stroke burden in 2019. Moreover, we found marked differences of stroke burden and attributable risk factors across provinces in China from 1990 to 2019. Interpretation: The disease burden of stroke is still severe in China, although the age-standardised incidence and mortality rates have decreased since 1990. The stroke burden in China might be reduced through blood pressure management, lifestyle interventions, and air pollution control. Moreover, because substantial heterogeneity of stroke burden existed in different provinces, improved health care is needed in provinces with heavy stroke burden. Funding: National Key Research and Development Program of China and Taikang Yicai Public Health and Epidemic Control Fund.</t>
-  </si>
-  <si>
-    <t>Ma Q., Li R., Wang L., Yin P., Wang Y., Yan C., Ren Y., Qian Z., Vaughn M.G., McMillin S.E., Hay S.I., Naghavi M., Cai M., Wang C., Zhang Z., Zhou M., Lin H., Yang Y.</t>
-  </si>
-  <si>
-    <t>The Lancet Public Health</t>
-  </si>
-  <si>
-    <t>e897</t>
-  </si>
-  <si>
-    <t>e906</t>
-  </si>
-  <si>
-    <t>10.1016/S2468-2667(21)00228-0</t>
-  </si>
-  <si>
-    <t>Community Health Awareness of Diabetes (CHAD): Description of a Community-Wide Diabetes Awareness Demonstration Program and its Feasibility</t>
-  </si>
-  <si>
-    <t>Objective: This article describes the Community Health Awareness Diabetes (CHAD) program and its feasibility. Developing and testing the feasibility of strategies to detect diabetes in the community is an important primary care issue. The CHAD program was designed to be a feasible and reproducible, low-cost community program to identify high-risk individuals for subsequent diabetes screening by their family doctors. Methods: Participants from Grimsby, Ontario, older than age 40, were invited to self-risk-assess for diabetes using a validated questionnaire and 2 near-patient blood tests (capillary blood glucose and glycosylated hemoglobin). Some participants were self-selected, having seen advertising for the program, others were invited by a letter from their family doctor. None of the participants had pre-existing diabetes. Numbers and characteristics of participants, numbers found at risk and satisfaction of participants were examined. Results: There were 588 participants in CHAD. Of these, the majority had received invitation letters, the majority of participants were seniors and were females, 526 did not have pre-existing diabetes and 16% of participants (n=84 of 526) were identified as being at high risk for diabetes. Participants at high risk of diabetes had significantly more modifiable risk factors, including higher fat, fast food and salt intake, and higher systolic blood pressure. Satisfaction with the program was high. Conclusions: The CHAD program was feasible and participants were satisfied with it. Participants had a large number of modifiable risk factors. This program could be repeated in other communities and modified to suit the infrastructure of the area. © 2013 Canadian Diabetes Association.</t>
-  </si>
-  <si>
-    <t>Agarwal G., Kaczorowski J., Hanna S.</t>
-  </si>
-  <si>
-    <t>Canadian Journal of Diabetes</t>
-  </si>
-  <si>
-    <t>10.1016/j.jcjd.2013.07.001</t>
-  </si>
-  <si>
-    <t>The effects of intermittent fasting on nighttime blood pressure levels</t>
-  </si>
-  <si>
-    <t>Hypertension, a preventable disease with a high prevalence, is frequently seen in obese patients with cardiovascular risk factors. Our study aimed to investigate the effect of an intermittent fasting regimen on nighttime blood pressure levels. Patients who applied to Karabuk University Faculty of Medicine Training and Research Hospital Cardiology and Family Medicine Polyclinic between January and March 2021 and were followed up for 24 hours on an outpatient basis were included in this self-controlled interventional study. Patients underwent a second 24-hour Holter blood pressure follow-up after one month of diet, and the results were compared. The study was conducted with 30 subjects who adhered to a one-month intermittent fasting regimen. 63.3% of the patients were male, and the mean age was 54.60 ± 9.71 years. One month later, 13 patients whose nighttime blood pressure improved were assigned to Group 1 and 17 patients to Group 2. There was no important variance between the groups in terms of gender, age, height, waist circumference and BMI (p=0.609, p=0.105 and p=0.087, in order of). Mean VA and BSA were considerably lower in Group 2 (p=0.027 and p=0.045, in order of). HT duration was longer in Group 1 (p=0.001). There was no important variance between the groups in terms of smoking, alcohol use, average daily sleep time, salt intake awareness and exercise habits. The rate of snacking habits in Group 2 was statistically considerably higher (p=0.033). Intermittent fasting may be beneficial in preventing nocturnal hypertension.</t>
-  </si>
-  <si>
-    <t>Yilmaz Yücel A.H., Adar A., Korkut B., Kalem P., İncı H., Adahan D.</t>
-  </si>
-  <si>
-    <t>Journal of Experimental and Clinical Medicine (Turkey)</t>
-  </si>
-  <si>
-    <t>10.52142/omujecm.39.3.38</t>
-  </si>
-  <si>
-    <t>Effect of low energy diet and weight loss on major risk factors, central obesity and associated disturbances in patients with essential hypertension</t>
-  </si>
-  <si>
-    <t>Obesity, especially central, increases the risk of hypertension, hypertriglyceridaemia and diabetes to a significant extent. To determine whether dietary weight reduction can reduce blood pressure (BP) and other cardiovascular risk factors, 217 hypertensives were randomised to receive either 1600 Kcal/day diet (group A, n = 108) or the usual 2100 Kcal/day diet (group B, n = 109). Sodium intake and physical activity were kept similar in both groups. After 16 weeks of follow-up, patients in group A received significantly less energy leading to a 2.8 kg net reduction in mean weight in association with a significant net decrease in mean SEP and DBP (7.5/6.5 mm Hg) compared with nonsignificant changes in group B. There was a significant net decrease in mean total cholesterol (7.0%), low-density lipoprotein (LDL)-cholesterol (7.9%) and triglycerides (8.0%), with a significant net increase in high-density lipoprotein (HDL)-cholesterol (4.0%) in group A compared with group B. New risk factors such as glucose intolerance (8.0%) and central obesity (waist-hip girth ratio, 0.021) showed a significant net reduction compared with group B. Patients with central obesity and other associated disturbances showed maximal reduction in BP and other cardiovascular risk factors with a significantly greater increase in HDL-cholesterol. Mean doses of drugs were similar at entry to the study as well as after 16 weeks in both groups. It is possible that weight reduction due to a low caloric diet can moderate central obesity and associated disturbances in hypertensive subjects.</t>
-  </si>
-  <si>
-    <t>Singh R.B., Niaz M.A., Bishnoi I., Singh U., Begum R., Rastogi S.S.</t>
-  </si>
-  <si>
-    <t>Journal of Human Hypertension</t>
-  </si>
-  <si>
-    <t>Factors affecting eradication failure in proton pump inhibitor (PPI)-based triple therapy for helicobacter pylori infection</t>
-  </si>
-  <si>
-    <t>Introduction: The standard triple therapy for Helicobacter pylori (H. pylori) infection consist proton pump inhibitor (PPI) with two antibiotics such as clarithromycin (CRM) and amoxicillin. However, the eradication failure of this regimen has increased in several European countries and Korea. CRM resistance is considered as the major cause of eradication failure, but the effect of CYP2C19 genotype of PPI metabolism is controversial. Aims and Methods: The aim of this study was to examine several factors affecting eradication failure. One-hundred subjects were consecutively enrolled in a tertiary hospital, Seoul, Korea. CRM resistance was evaluated by A2142G and A2143G mutation in 23S rRNA of H. pylori. The polymorphisms of G681A (exon 5) and G636A (exon 4) of CYP2C19 gene were examined by PCR-RFLP. CYP2C19 genotypes were classified into rapid metabolizer (RM), intermediate metabolizer (IM), and poor metabolizer (PM). In addition, several parameters such as age, sex, body mass index (BMI), DM, hypertension, alcohol drinking, smoking habits, salt intake and compliance were examined. Results: Eradication success was observed in 73/100 cases (73%), and eradication failure was 27/100 cases (27%). CRM resistance was in 14/100 cases. Among eradication failure, CRM resistance was 13/27 cases (48.1%). Only one case with CRM resistance was successfully eradicated. Rapid metabolizer of CYP2C19 was observed in 13/27 cases (48.1%) with eradication failure. Two cases without CRM resistance were eradication failure due to poor drug compliance. Conclusion: In Korea, factors affecting eradication failure in PPI-based triple therapy for H. pylori infection were CRM resistance, RM of CYP2C19, and poor compliance.</t>
-  </si>
-  <si>
-    <t>Objective not of interest</t>
-  </si>
-  <si>
-    <t>Chang Y.W., Byun J., Kim J., Jang J.Y.</t>
-  </si>
-  <si>
-    <t>Helicobacter</t>
-  </si>
-  <si>
     <t>10.1111/hel.12262</t>
   </si>
   <si>
@@ -201,6 +285,12 @@
     <t>European Psychiatry</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>S399</t>
   </si>
   <si>
@@ -219,103 +309,547 @@
     <t>Kidney International</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
     <t>10.1016/j.kint.2018.12.017</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>1208</t>
+    <t>Hypothalamic hypertensive factor: An inhibitor of nitric oxide synthase activity</t>
+  </si>
+  <si>
+    <t>Human and rat plasma and rat hypothalamus contain a cytochemically detectable substance, the concentration of which rises with an increase in salt intake. The plasma concentration of this material is also raised in essential hypertension and in the spontaneously hypertensive rat (SHR), the Milan hypertensive rat, and the reduced renal mass (RRM) hypertensive rat. In the normal rat, the greatest concentration is found in the hypothalamus of the SHR and the RRM hypertensive rat. The physicochemical characteristics of this cytochemically detectable hypothalamic hypertensive factor (HHF), including chromatographic behavior and molecular weight range, surest that it may share features common to a substituted guanidine that is present in established nitric oxide synthase (NOS) inhibitors. It was therefore decided to determine the effect on NOS activity of the HHF obtained from mature SHR. The ability of HHF to inhibit NOS activity was studied on (1) NOS extracted from bovine aorta, rat brain, and human platelets by measuring the conversion of radiolabeled L-arginine to L-citrulline and (2) rat liver NOS measured indirectly with a cytochemical technique base on the stimulation of soluble guanylate cyclase activity in hepatocytes by NO. HHF showed a biphasic inhibitory action on platelet NOS activity that was greater with HHF obtained from SHR than from Wistar-Kyoto rats. HHF also had a biphasic inhibitory effect on hepatocyte NOS activity that was more potent when obtained from SHR. It is proposed that the increase in HHF, a novel form of NOS inhibitor that is elevated in SHR, may be involved in the rise in arterial pressure.</t>
+  </si>
+  <si>
+    <t>Animal/invitro</t>
+  </si>
+  <si>
+    <t>Morris H.R., Etienne A.T, Panico M., Tippins J.R., Alaghband-Zadeh J., Holland S.M., Mehdizadeh S., De Belleroche J., Das I., Khan N.S., De Wardener H.E.</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>10.1161/01.HYP.30.6.1493</t>
+  </si>
+  <si>
+    <t>The dietary approach to stop hypertension with sodium reduction for Chinese Canadian (DASHNa-CC): A pilot RCT</t>
+  </si>
+  <si>
+    <t>While unhealthy diet has been identified as a modifiable risk factor for hypertension, there is a lack of culturally sensitive dietary interventions targeting Chinese Canadians. The primary research objective was to determine the feasibility of the Dietary Approach to Stop Hypertension with Sodium (Na) Reduction for Chinese Canadian (DASHNa-CC) intervention. Secondary objectives were to examine its potential effects on blood pressure, health-related quality of life, and health service utilization. Self-identified Chinese Canadians, older than 45 years old and with grade one hypertension, were included in this pilot RCT. The control group received usual care and the intervention group received usual care plus the DASHNa-CC intervention. The 8-week DASHNa-CC intervention incorporated DASH diet, sodium reduction with the food therapy of Traditional Chinese Medicine, and included a resource manual, two sessions of classroom instruction delivered in Mandarin, and 20 minute telephone follow-up. Descriptive statistics and t-tests were used to analyze the data. In a Chinese community in Toronto, 618 Chinese Canadians participated in blood pressure screening, 54.5% had hypertension, and 17% (n=105) were eligible to participate in the study. Among eligible individuals, 60 (n=57.1%) consented to participate. Participants adhered and were highly satisfied with the intervention. Compared to the control group, the intervention group had better dietary behaviours, enhanced reduction of blood pressure, and improved health-related quality of life. There were no group differences in health service utilization. It is feasible to conduct a DASHNa-CC trial. A significantly powered RCT should be undertaken to furthur investigate its effectiveness.</t>
+  </si>
+  <si>
+    <t>Zou P., Parry M., Dennis L., Lee R.</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Cardiology</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>S316</t>
+  </si>
+  <si>
+    <t>S317</t>
+  </si>
+  <si>
+    <t>Sarcopenia in adults with congenital heart disease: Nutritional status, dietary intake, and resistance training</t>
+  </si>
+  <si>
+    <t>Background: This study aimed (1)to assess the nutritional status and dietary intake, (2)compare the body composition and nutritional intake between sarcopenia and non-sarcopenia, and (3)evaluate the effects of resistance training and amino acid intake in adults with congenital heart disease (CHD). Methods: Study 1 In total, 172 adults with CHD were prospectively enrolled. The Food Frequency Questionnaire was used, and body composition analysis was conducted. Study 2: Thirty of 172 adult patients with CHD were divided into two groups: amino acid intake plus resistance training (group A)and amino acid intake only (group B)for 2 months. Results: Study 1: Skeletal muscle mass index was lower in adults with CHD compared to healthy Japanese. Calorie, protein, and fat intake in adults with CHD was higher than those in the National Nutritive Intake Investigation; however, the difference in carbohydrate or salt intake was non-significant. Study 2: In adults with CHD in group A, body fat percentage, edema index, and N-terminal prohormone of brain natriuretic peptide improved, and body weight, skeletal muscle mass index, and basic metabolism increased after the intervention. There was no improvement after intervention for group B. Conclusions: According to this study, adults with CHD have higher calorie, protein, and fat intake than those in a national survey despite decreased skeletal muscle mass. Amino acid intake plus resistance training positively improved body fat percentage, skeletal muscle mass, and edema in adults with CHD. Appropriate nutritional education and resistance training guidelines should be provided.</t>
+  </si>
+  <si>
+    <t>Shiina Y., Matsumoto N., Okamura D., Takahashi Y., Kijima Y., Fukuda T., Kawamatsu N., Nishihata Y., Komiyama N., Niwa K.</t>
+  </si>
+  <si>
+    <t>Journal of Cardiology</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>10.1016/j.jjcc.2019.01.003</t>
+  </si>
+  <si>
+    <t>Cytoplasmic p53 polypeptide is associated with ribosomes</t>
+  </si>
+  <si>
+    <t>Our previous finding that the tumor suppressor p53 is covalently linked to 5.8S rRNA suggested functional association of p53 polypeptide with ribosomes. p53 polypeptide is expressed at low basal levels in the cytoplasm of normal growing cells in the G(t) phase of the cell cycle. We report here that cytoplasmic wild-type p53 polypeptide from both rat embryo fibroblasts and MCF7 cells and the A135V transforming mutant p53 polypeptide were found associated with ribosomes to various extents. Treatment of cytoplasmic extracts with RNase or puromycin in the presence of high salt, both of which are known to disrupt ribosomal function, dissociated p53 polypeptide from the ribosomes. In immunoprecipitates of p53 polypeptide-associated ribosomes, 5.8S rRNA was detectable only after proteinase K treatment, indicating all of the 5.8S rRNA in p53-associated ribosomes is covalently linked to protein. While 5.8S rRNA linked to protein was found in the immunoprecipitates of either wild-type or A135V mutant p53 polypeptide associated with ribosomes, little 5.8S rRNA was found in the immunoprecipitates of the slowly sedimenting p53 polypeptide, which was not associated with ribosomes. In contrast, 5.8S rRNA was liberated from bulk ribosomes by 1% sodium dodecyl sulfate, without digestion with proteinase K, indicating that these ribosomes contain 5.8S rRNA, which is not linked to protein. Immunoprecipitation of p53 polypeptide coprecipitated a small fraction of ribosomes. p53 mRNA immunoprecipitated with cytoplasmic p53 polypeptide, while GAPDH mRNA did not. These results show that cytoplasmic p53 polypeptide is associated with a subset of ribosomes, having covalently modified 5.8S rRNA.</t>
+  </si>
+  <si>
+    <t>Fontoura B.M.A., Atienza C.A., Sorokina E.A., Morimoto T., Carroll R.B.</t>
+  </si>
+  <si>
+    <t>Molecular and Cellular Biology</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3146</t>
+  </si>
+  <si>
+    <t>3154</t>
+  </si>
+  <si>
+    <t>10.1128/MCB.17.6.3146</t>
+  </si>
+  <si>
+    <t>Platelet storage in PAS-2 or autologous plasma: Impact on functional parameters</t>
+  </si>
+  <si>
+    <t>Currently, several platelet additive solutions for long-term platelet storage have been introduced. The aim of this study was to compare the deterioration of functional status of platelets stored for up to 5 days in autologous plasma (AP) only, with platelet stored in PAS-2, a salt solution containing acetate, citrate and sodium chloride. Change in platelet adhesion, aggregation and activation was measured by flow cytometric technique. In addition, β-Thromboglobulin (β-TG), lactate and glucose were determined. After 5 days of storage, the expression of P-Selectin was significantly higher, the production of lactate and the consumption of glucose were significantly lower, in platelets stored in PAS-2 than in autologous plasma. No significant differences were detected on day 5 between the two groups with regard to fibrinogen, von Willebrand factor binding capacity, or to β-TG release. It can be concluded that neither storage medium was consistently better for the parameters tested. However, it must be emphasized that platelets stored in autologous plasma exhibited less lesion, in terms of P-Selectin expression compared with platelets stored in PAS-2.</t>
+  </si>
+  <si>
+    <t>Bunescu A., Hild M., Lundahl J., Egberg N.</t>
+  </si>
+  <si>
+    <t>Transfusion Medicine</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>10.1046/j.1365-3148.2001.00293.x</t>
+  </si>
+  <si>
+    <t>Characterization of chronic active multiple sclerosis lesions with sodium ((23)Na) magnetic resonance imaging—preliminary observations</t>
+  </si>
+  <si>
+    <t>Background and purpose: There has been an increasing interest in chronic active multiple sclerosis (MS) lesions as a new magnetic resonance imaging (MRI) marker of disease progression. Chronic active lesions are characterized by progressive tissue matrix damage, axonal loss and chronic inflammation. Sodium ((23)Na) MRI provides a biochemical marker of cell integrity and tissue viability in a quantitative manner. The aim of this study was to investigate with (23)Na MRI tissue abnormalities in chronic active lesions as indicators of tissue destruction. Methods: To identify chronic active lesions, two 3D magnetization-prepared rapid acquisition gradient-echo datasets obtained 12 months apart were processed using the voxel-guided morphometry algorithm. Cross-sectional (23)Na MRI was performed during the 12-month follow-up period. Total sodium concentration was calculated in chronic active lesions compared to shrinking, chronic stable and acute contrast-enhancing lesions. Results: Overall, 70 MS lesions (21 chronic active, 10 shrinking, 29 chronic stable lesions, 10 acute contrast-enhancing lesions) in 12 patients were included. Total sodium concentration in chronic active lesions (49.57 ± 8.47 mM) was significantly higher than in shrinking (42.16 ± 3.9 mM; p = 0.03) and chronic stable lesions (39.92 ± 4.82 mM; p &lt; 0.001). Chronic active lesions showed similar sodium values compared to acute contrast-enhancing lesions (48.06 ± 6.65 mM; p = 0.97). No differences between shrinking and chronic stable lesions were observed (p = 0.89). Conclusion: High sodium values in chronic active MS lesions may be an indicator of ongoing inflammation and tissue damage.</t>
+  </si>
+  <si>
+    <t>Eisele P., Kraemer M., Dabringhaus A., Weber C.E., Ebert A., Platten M., Schad L.R., Gass A.</t>
+  </si>
+  <si>
+    <t>European Journal of Neurology</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2392</t>
+  </si>
+  <si>
+    <t>2395</t>
+  </si>
+  <si>
+    <t>10.1111/ene.14873</t>
+  </si>
+  <si>
+    <t>Recharging red blood cell surface by hemodialysis</t>
+  </si>
+  <si>
+    <t>Background: Similar as in vascular endothelium the negatively charged glycocalyx of erythrocytes selectively buffers sodium. Loss of glycocalyx (i.e. loss of negative charges) leads to increased erythrocyte sodium sensitivity (ESS) quantified by a recently developed salt-blood-test (SBT). The hypothesis was tested whether a regular 4-hour hemodialysis (4h-HD) alters ESS. Methods: In 38 patients with end stage renal disease (ESRD) ESS was measured before and after 4h-HD, together with standard laboratory and clinical parameters (electrolytes, acid-base status, urea, creatinine, hemoglobin, c-reactive protein and blood pressure). Results: Before 4h-HD, 20 patients (out of 38) were classified as 'salt sensitive' by SBT. After 4h-HD, this number decreased to 11. Erythrocyte sodium buffering power remained virtually constant in patients with already low ESS before dialysis, whereas in patients with high ESS, 4h-HD improved the initially poor sodium buffering power by about 20%. No significant correlations could be detected between standard blood parameters and the respective ESS values except for plasma sodium concentration which was found increased by 3.1 mM in patients with high salt sensitivity. Conclusions: 4h-HD apparently recharges 'run-down' erythrocytes and thus restores erythrocyte sodium buffering capacity. Besides the advantage of efficient sodium buffering in blood, erythrocytes with sufficient amounts of free negative charges at the erythrocyte surface will cause less (mechanical) injury to the negatively charged endothelial surface due to efficient repulsive forces between blood and vessel wall. Hemodialysis improves erythrocyte surface properties and thus may prevent early vascular damage in patients suffering from ESRD.</t>
+  </si>
+  <si>
+    <t>Kliche K., Gerth U., Pavenstädt H., Oberleithner H.</t>
+  </si>
+  <si>
+    <t>Cellular Physiology and Biochemistry</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>10.1159/000373936</t>
+  </si>
+  <si>
+    <t>Inadequate status of iodine nutrition among pregnant women residing in three districts of Niamey, the Niger Republic's capital</t>
+  </si>
+  <si>
+    <t>Universal dietary salt iodisation (UDSI) programme was implemented in Niger in 1996. However, since 2000, there has been a slowdown in progress against iodine deficiency. The aim of our study was to assess the iodine status among pregnant women in a context where national controls are not effective at ensuring universal availability of adequately iodised salt. This is mainly to assess the impact of the slowdown in the fight against iodine deficiency in this vulnerable group. The study was centred on 240 healthy pregnant women volunteers recruited in three districts primary health centres. A control group of 60 non-pregnant, non-lactating healthy women was also studied and compared. Median urinary iodine concentration (UIC) of all pregnant women was 119μgL(-1), and 61.67% had UIC below 150μgL(-1). Median UIC for the first, second and third trimester were 144, 108 and 92μgL(-1), respectively. The percentage of pregnant women with UIC below 150μgL(-1) increased from 52% in the first trimester to 66% in the third trimester. The median UIC of the control group was 166μgL(-1), and 28.33% had UIC below 100μgL(-1). No significant relationship was found between nutritional iodine status and provenance, age and parity. However, significant relationship was found between iodine status and stage of pregnancy, gestational age and educational level (P&lt;0.05). Iodine nutrition status thus observed was inadequate in 61.67% of all the pregnant women. It is therefore urgent to revitalise implementation of the UDSI programme, and in the short term to consider iodine supplementation for pregnant women.</t>
+  </si>
+  <si>
+    <t>Sadou H., Seyfoulaye A., Malam Alma M., Daouda H.</t>
+  </si>
+  <si>
+    <t>Maternal and Child Nutrition</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>10.1111/mcn.12089</t>
+  </si>
+  <si>
+    <t>Metabolic effects caused by sodium levothyroxine in subclinical hypothyroidism patients with low HDL</t>
+  </si>
+  <si>
+    <t>Introduction: Subclinical hypothyroidism (SH) is an autoimmune thyroid disorder characterized by elevated TSH with values of T3, T4, free T3 and free T4 within the reference range. High TSH levels are associated with lipid alteration. Method: A total of 21 patients aged between 18 and 80 years were recruited. The sample was composed of 17 females and 4 males, all of whom had TSH values ranging from 5.0 to 9.9 (mlU/L) and normal free T4 levels. They were followed up for 26 months while undergoing sodium levothyroxine replacement therapy (12.5–25 mcg/day). Throughout this period, TSH, free T4 HDL, LDL, triglyceride, total cholesterol and glucose levels were evaluated. Results: A significant improvement in HDL cholesterol levels was observed. There was also a decrease in fasting glucose. No significant changes were seen in triglyceride levels. Conclusion: As observed throughout this study, SH patients with low HDL under therapy showed a significant increase in HDL levels after TSH levels were normalized. Therefore, it is quite clear that thyroid hormones affect lipid metabolism, and, as a result, metabolic syndrome components.</t>
+  </si>
+  <si>
+    <t>Garcia B.F., da Veiga G.L., Alves B.C., Gehrke F.S., Fonseca F.L.A.</t>
+  </si>
+  <si>
+    <t>Obesity Medicine</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>10.1016/j.obmed.2018.12.008</t>
+  </si>
+  <si>
+    <t>Thyroid function and blood pressure homeostasis in euthyroid subjects</t>
+  </si>
+  <si>
+    <t>Overt and subclinical hypothyroidism are associated with increased systemic vascular resistance and hypertension. We examined the relationship between thyroid function and blood pressure homeostasis in euthyroid individuals. A total of 284 subjects (68% hypertensive) consumed high- (200 mmol) and low- (10 mmol) sodium diets, and their blood pressure responses were assessed as percentage change in the mean arterial pressure (MAP). p-Aminohippuric acid clearance was used to estimate effective renal plasma flow. Renal vascular resistance (RVR) was calculated as MAP divided by effective renal plasma flow. Serum free T(4) index (FTI) was lower (P &lt; 0.0001) and TSH was higher (P = 0.046) in hypertensive compared with normotensive subjects independent of other baseline characteristics. FTI (β = -1.51, P &lt; 0.0001), baseline MAP, and race independently predicted MAP salt sensitivity. The FTI relationship with salt sensitivity adjusted for baseline MAP and race was similar among normotensive (β = -1.42, P = 0.008) and hypertensive subjects (β = -1.66, P = 0.0001). FTI correlated negatively with high- (P = 0.0001) and low- (P = 0.008) salt RVR, whereas TSH correlated positively with high-(P = 0.016) and low- (P = 0.012) salt RVR independent of age, gender, race, and body mass index. We have found that FTI is lower and TSH is higher in hypertensive compared with normotensive euthyroid subjects and that FTI independently predicts blood pressure salt sensitivity. These data show that the influence of thyroid function on blood pressure homeostasis extends into euthyroid range and likely reflects the action of thyroid hormone on peripheral vasculature.</t>
+  </si>
+  <si>
+    <t>Gumieniak O., Perlstein T.S., Hopkins P.N., Brown N.J., Murphey L.J., Jeunemaitre X., Hollenberg N.K., Williams G.H.</t>
+  </si>
+  <si>
+    <t>Journal of Clinical Endocrinology and Metabolism</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>3455</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>10.1210/jc.2003-032143</t>
+  </si>
+  <si>
+    <t>Association of Clinical and Social Factors with Excess Hypertension Risk in Black Compared with White US Adults</t>
+  </si>
+  <si>
+    <t>Importance: The high prevalence of hypertension among the US black population is a major contributor to disparities in life expectancy; however, the causes for higher incidence of hypertension among black adults are unknown. Objective: To evaluate potential factors associated with higher risk of incident hypertension among black adults. Design, Setting, and Participants: Prospective cohort study of black and white adults selected from a longitudinal cohort study of 30239 participants as not having hypertension at baseline (2003-2007) and participating in a follow-up visit 9.4 years (median) later. Exposures: There were 12 clinical and social factors, including score for the Southern diet (range, -4.5 to 8.2; higher values reflect higher level of adherence to the dietary pattern), including higher fried and related food intake. Main Outcomes and Measures: Incident hypertension (systolic blood pressure ≥140 mm Hg, diastolic blood pressure ≥90 mm Hg, or use of antihypertensive medications) at the follow-up visit. Results: Of 6897 participants (mean [SD] age, 62 [8] years; 26% were black adults; and 55% were women), 46% of black participants and 33% of white participants developed hypertension. Black men had an adjusted mean Southern diet score of 0.81 (95% CI, 0.72 to 0.90); white men, -0.26 (95% CI, -0.31 to -0.21); black women, 0.27 (95% CI, 0.20 to 0.33); and white women, -0.57 (95% CI, -0.61 to -0.54). The Southern diet score was significantly associated with incident hypertension for men (odds ratio [OR], 1.16 per 1 SD [95% CI, 1.06 to 1.27]; incidence of 32.4% at the 25th percentile and 36.1% at the 75th percentile; difference, 3.7% [95% CI, 1.4% to 6.2%]) and women (OR, 1.17 per 1 SD [95% CI, 1.08 to 1.28]; incidence of 31.0% at the 25th percentile and 34.8% at the 75th percentile; difference, 3.8% [95% CI, 1.5% to 5.8%]). The Southern dietary pattern was the largest mediating factor for differences in the incidence of hypertension, accounting for 51.6% (95% CI, 18.8% to 84.4%) of the excess risk among black men and 29.2% (95% CI, 13.4% to 44.9%) of the excess risk among black women. Among black men, a higher dietary ratio of sodium to potassium and an education level of high school graduate or less each mediated 12.3% of the excess risk of incident hypertension. Among black women, higher body mass index mediated 18.3% of the excess risk; a larger waist, 15.2%; less adherence to the Dietary Approaches to Stop Hypertension diet, 11.2%; income level of $35000 or less, 9.3%; higher dietary ratio of sodium to potassium, 6.8%; and an education level of high school graduate or less, 4.1%. Conclusions and Relevance: In a mediation analysis comparing incident hypertension among black adults vs white adults in the United States, key factors statistically mediating the racial difference for both men and women included Southern diet score, dietary ratio of sodium to potassium, and education level. Among women, waist circumference and body mass index also were key factors..</t>
+  </si>
+  <si>
+    <t>Howard G., Cushman M., Moy C.S., Oparil S., Muntner P., Lackland D.T., Manly J.J., Flaherty M.L., Judd S.E., Wadley V.G., Long D.L., Howard V.J.</t>
+  </si>
+  <si>
+    <t>JAMA - Journal of the American Medical Association</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>1348</t>
+  </si>
+  <si>
+    <t>10.1001/jama.2018.13467</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Baseline characteristics of participants in phase I of the Trials of Hypertension Prevention</t>
+  </si>
+  <si>
+    <t>Phase I of the Trials of Hypertension Prevention was designed to test the effectiveness and safety of three life-style (weight loss, sodium restriction, and stress management) and four nutrition supplement (calcium, magnesium, potassium, and fish oil) interventions in reducing diastolic blood pressure (DBP) in persons with a high-normal blood pressure. A total of 2182 persons with a DBP between 80 and 89 mm Hg met the eligibility criteria for participation in phase I and were randomized to one of the active intervention or control treatment groups. Most were white (82%), male (70%), married (76%), nonsmoking (88%), college graduate (53%), full-time employees (91%). The average blood pressure prior to entry into the trial was 124.9 mm Hg systolic and 83.8 mm Hg diastolic. A variety of baseline observations, including sociodemographic characteristics, personal and family medical history, health habits, diet, and biologic measurements, were documented before randomization and compared among the seven active intervention and control groups. As might be expected in a randomized trial of this sample size, the distribution of measured baseline characteristics was virtually identical in the treated and control groups. Based on this finding and the knowledge that randomization procedures were implemented without deviation from the phase I protocol, it is probable that unknown potential confounders were also equally distributed at entry into the study. Given the achievement of high rates of follow-up, subsequent differences in blood pressure are unlikely to have been due to baseline differences between the active treatment and control groups, and can probably be attributed to effects of the active interventions.</t>
+  </si>
+  <si>
+    <t>Whelton P.K., Hebert P.R., Cutler J., Applegate W.B., Eberlein K.A., Klag M.J., Keough M.E., Hamill S., Borhani N.O., Hollis J., Oberman A.</t>
+  </si>
+  <si>
+    <t>Annals of Epidemiology</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Impact of smoking tobacco on healthy life-style habits and 10-year cardiovascular risk in schizophrenia disorders</t>
+  </si>
+  <si>
+    <t>Purpose of the study: In a variety of health settings, mortality from any cause among patients with chronic schizophrenia spectrum disorders has been shown to be considerably greater. Apart from increased suicidal tendencies and other possible reasons such as increased risk for cardiovascular and/or endocrine disorders, lifestyle factors appears as potential contributors to poor outcomes in such patients. Among lifestyle habits, smoking tobacco seems to be an important factor given its expected high prevalence within this type of patients. In this work, we analyse the impact of tobacco smoking over healthy life-style habits along with the impact of smoking on 10-years cardiovascular event (CVE) risk in the CLAMORS schizophrenics' cohort. Methods: This analysis was performed within the scope of the CLAMORS study (a nation-wide cross-sectional multicentre study carried out between years 2005 and 2006), which included consecutive outpatients meeting DSM-IV criteria for schizophrenia, schizophreniform or schizoaffective disorder. Smoking history was assessed by patient's interview, and checked with partners and/or relative when available. Apart from psychiatric history, physical examination and fasting analytical parameters determination, data on usual healthy life-style habits included current exercise, saturated-fat sparing diet, low-caloric diet, and daily dietary fibre, salt, caffeine and alcohol consumption. The 10-year CVE risk was computed by means of the Framingham function. Descriptive statistics, odds ratios with its 95% confidence intervals calculated with binary logistic regression and analysis of covariance (ANCOVA) to adjust for confounding variables were used to ascertain statistical association. Results: A total of 1,704 patients (61.1% male), 18 to 74 years (mean age: 40.2±12.3 years) were examined. The overall prevalence of current daily smoking was 54.54% (95% CI: 52.16%-56.90%). After controlling by age, sex, total cholesterol, HDL-cholesterol, blood pressure and diabetes diagnosis, smokers showed a 10-year CVE risk excess versus non-smokers of 2.63 (2.16-3.09), p&lt; 0.001. Smoking cessation would reduce the likely of high/very high 10-year CVE risk (above 10%) by 90% [OR=0.10 (0.06-0.18), p&lt;0.0001]. After adjusting by age and sex, smokers were more likely to consume daily alcohol [OR=4.13 (3.07-5.54), p&lt; 0.0001] and caffeine [OR=3.39 (2.72-4.23), p&lt;0.0001] than non-smokers patients with schizophrenia, and less likely to avoid daily consumption of salt [OR=0.58 (0.43-0.78), p&lt;0.0001], saturated-fat [OR=0.71 (0.56-0.91), p = 0.006], dietary fibre [OR=0.67 (0.53-0.84), p = 0.001], or to follow a low-caloric diet [OR=0.63 (0.48-0.81), p &lt; 0.0001]. Schizophrenic smokers were less likely to do exercise habitually [OR=0.62 (0.48-0.82, p = 0.001], and also showed a significant negative linear trend with level of physical activity (p = 0.002); the higher the level of exercise the lowest the probability of do it. Conclusion: Smoker subjects with schizophrenia spectrum disorders who would stop smoking tobacco habit will be 90% less likely to have a 10-year cardiovascular event risk above 10%. Also, this vulnerable population would benefit of educational medical counselling focusing in changing dietary and life-style poor habits which could negatively impact in patient outcomes. Health decision makers and psychiatrists as well are encouraged to implement such medical interventions to help these types of patients as earlier as they are managed by a clinician.</t>
+  </si>
+  <si>
+    <t>Arango C., Bobes J., García-García M., Rejas J.</t>
+  </si>
+  <si>
+    <t>European Neuropsychopharmacology</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>S575</t>
+  </si>
+  <si>
+    <t>S576</t>
+  </si>
+  <si>
+    <t>10.1016/S0924-977X(09)70920-4</t>
+  </si>
+  <si>
+    <t>Belief in the need for sodium supplementation during ultramarathons remains strong: findings from the Ultrarunners Longitudinal TRAcking (ULTRA) study</t>
+  </si>
+  <si>
+    <t>In the past, ultramarathon runners have commonly believed that consuming sodium supplements, as capsules or tablets, will prevent exercise-associated hyponatremia (EAH), dehydration, muscle cramping, and nausea, but accumulating evidence indicates that sodium supplementation during ultramarathons is not necessary and may be potentially dangerous. In this work, beliefs about whether sodium supplements should be made available at ultramarathons were assessed during 2018 among 1152 participants of the Ultrarunners Longitudinal TRAcking (ULTRA) study, of which 85.2% had completed an ultramarathon during 2014-2018. Two-thirds (66.4%) of study participants indicated that sodium supplements should be made available at ultramarathons, supported by beliefs that they prevent EAH (65.5%) and muscle cramping (59.1%). Of those indicating that sodium supplements should not be made available, 85.0% indicated it is because runners can provide their own, 27.9% indicated it is because they are not necessary, and 12.1% indicated they could increase thirst drive and cause overhydration. In general, there was a tendency for those who were older, less active in running ultramarathons in recent years, and with a longer history of ultramarathon running to be less likely to know that sodium supplements do not help prevent EAH, muscle cramping, and nausea. Novelty Ultramarathon runners continue to have misunderstandings about the need for sodium supplementation during ultramarathons. Few ultramarathon runners recognize that supplementing sodium intake beyond that in food and drink is generally not necessary during ultramarathons or that it could result in overhydration. Continued educational efforts are warranted to help ensure safe participation in the sport.</t>
+  </si>
+  <si>
+    <t>Hoffman M.D., White M.D.</t>
+  </si>
+  <si>
+    <t>Applied physiology, nutrition, and metabolism = Physiologie appliquee, nutrition et metabolisme</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>10.1139/apnm-2019-0238</t>
+  </si>
+  <si>
+    <t>Prevalence and risk correlates of hypertension among adult rural population in Bihar</t>
+  </si>
+  <si>
+    <t>Background: Cardiovascular diseases will be prime cause of morbidity by 2020 in India. Objective: To determine prevalence and correlates of hypertension in an adult rural community. Materials and Methods: A cross-sectional study was carried out in the field practice area of the Department of Community Medicine of tertiary care teaching institute of Bihar among adult population to find out the prevalence of hypertension with the sociodemographic correlates from October 2009 to September 2010. A pretested predesigned questionnaire was used to collect sociodemographics data by interview technique from 997 study participants. The blood pressure was assessed and classified using recent JNC 7 and WHO criteria to grade hypertension. Results: Majority of the study participants were Muslims (89%) and in 40-49 age group (21.26%). In males and females, the overweight and obese combined were, respectively, 13%. In the dietary habit, 85.36% were non-vegetarian; 8.83% consumed salt more than 10 grams per day; 26.78% reported themselves as alcoholics; tobacco smokers were 58.28%, highest in 40-49 age group (23.58%). Overall, 11.43% were hypertensive and 16% were prehypertensive. Among hypertensive, majority were male (61%); and in 60-69 age group (27.27%), overweight and obese (56.14%), smokers (75.44%), non-vegetarian (67.54%). There was a significant linear trend between age and salt intake with prevalence of hypertension (P&lt;0.0001). Conclusions: Hypertension in the rural population of Bihar was lower than previous estimates.</t>
+  </si>
+  <si>
+    <t>Ghosh A., Sarkar D., Mukherji B., Pal R.</t>
+  </si>
+  <si>
+    <t>Annals of Tropical Medicine and Public Health</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>10.4103/1755-6783.115209</t>
+  </si>
+  <si>
+    <t>Trends of diet and blood pressure in Guangzhou, South China</t>
+  </si>
+  <si>
+    <t>As part of the International Cooperative Cardiovascular Diseases and Alimentary Comparison (CARDIAC) Study surveys to determine the relationship of dietary factors to blood pressure were carried out in 1985 (pilot study) and 1989 (core study). Thirteen men and 16 women, and 102 men and 115 women aged 50-54 in the rural population of Panyu county in Guangzhou were randomly selected for the pilot and core studies, respectively. Blood pressure was measured by an automatic system and 24-h urine collection by aliquot cups. All urinary specimens were analyzed in the WHO Collaborating Center (Izumo, Japan). Seven hypertensive cases and 17 borderline cases of hypertension were found in 1989 but none in 1985. Mean systolic blood pressure (SBP) and diastolic blood pressures (DBP) were increased, and the intake of dietary sodium (Na), sodium chloride (NaCl), and the ratio of sodium to potassium (Na/K) were increased markedly. The intake of magnesium (Mg) was decreased in 1989. Correlation analyses showed that body mass index was positively related to SBP and DBP (p &lt; 0.05), Na and NaCl were positively related only to DBP (p &lt; 0.05), and Mg was inversely related to SBP but with no statistical significance. These results indicate that trends of rise of prevalence rate of hypertension and mean values of SBP and DBP in association with increased dietary Na and decreased Mg intake may be due to rapid changes in dietary habits, changes in lifestyle, and the differing socioeconomic status in the area and may highlight the importance of dietary factors in the prevention of hypertension.</t>
+  </si>
+  <si>
+    <t>Li Y.H., Nara Y., Huang Z.D., Ishinaga Y., Rao X.X., Yamori Y., Cen R.C., Zhang K., Chen P.F., Ma L.M., Liu X.Q., Mai J.Z., Guo C.G., Deng M.L., Liang Q., Shi M., Yu H., Zhou J.</t>
+  </si>
+  <si>
+    <t>Journal of Cardiovascular Pharmacology</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>SUPPL. 8</t>
+  </si>
+  <si>
+    <t>Conference Paper</t>
+  </si>
+  <si>
+    <t>Health Literacy, Numeracy, and Dietary Approaches to Stop Hypertension Accordance Among Hypertensive Adults</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Health literacy (HL) and health numeracy (HN), the ability to interpret and act on quantitative health information, are important for hypertension self-management such as limiting sodium intake. We examined associations of HL, HN, and Dietary Approaches to Stop Hypertension (DASH) diet accordance. PARTICIPANTS: Among 1,073 hypertensive adults enrolled in a Baltimore, Maryland-based cohort study, we performed a cross-sectional analysis. Rapid Estimate of Adult Literacy in Medicine (REALM) measured HL and Test of Functional Health Literacy in Adults (TOFHLA) numeracy score measured HN. METHOD: DASH accordance was based on nine key nutrients. Linear regression models estimated associations of HL and HN with DASH total and sodium score, inclusive of dietary supplement data. RESULTS: In our sample, 39% of participants were male, 66% were Black, 40.2% lived in poverty, and 29.5% reported food insecurity. Fully, 32.5% had limited HL and 14.5% had limited HN. Mean DASH score overall was 2 (range = 0-7.5); only 6.9% were DASH accordant (score ≥4.5). In age and sex adjusted models, higher REALM was associated with a higher DASH score in the overall sample; the relationship of HN with DASH was statistically significant among White but not Black participants. Educational attainment appeared to explain both findings. There were no significant associations between HL or HN and DASH sodium scores. CONCLUSION: Differences in educational attainment explained the relation of higher HL and greater accordance to the DASH diet in a population of hypertensive adults. Understanding these factors is vital to reducing disparities in hypertension and its sequelae.</t>
+  </si>
+  <si>
+    <t>Lou S.P., Han D., Kuczmarski M.F., Evans M.K., Zonderman A.B., Crews D.C.</t>
+  </si>
+  <si>
+    <t>Health education &amp; behavior : the official publication of the Society for Public Health Education</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>10.1177/10901981221079742</t>
+  </si>
+  <si>
+    <t>Intake of salt/umami/fat and sweet/fat tasting foods are associated with cardiovascular disease (CVD) mortality in dutch elderly cardiac patients</t>
+  </si>
+  <si>
+    <t>Background/Aims: Taste preferences have been associated with dietary behavior and risk factors of CVD. No studies investigated the association of actual food intake from taste-specific food groups with cardiovascular disease (CVD) mortality. Our objective was to study the association between taste-related food intake and CVD mortality in well-treated Dutch cardiac patients in the Alpha Omega Cohort Study. Methods:We included 4,365 patients aged 60-80 years. A Food Frequency Questionnaire (FFQ) was administered at baseline. Cause-specific mortality was monitored from 2002 until January 2013. The dietary intake data was combined with a taste database, containing 476 foods. We performed cluster analysis on the foods consumed by patients and came to 6 taste clusters. Food intake (g) was calculated for each taste cluster. HRs for CVD mortality were obtained from Cox Proportional Hazards Model adjusting for age, sex, total energy intake, physical activity, educational level, smoking status, alcohol use, medication use, and intake from other taste clusters (g). Results: During a median follow up time of 7.3 years, 310 patients died due to CVD. A high intake of salt/umami/fat tasting foods increased the risk of CVD mortality with an HR of 1.53 (95% CI: 1.06, 2.16; p-trend = 0.017), while a high intake of sweet/fat tasting foods decreased the risk of CVD mortality, with an HR of 0.61 (95% CI: 0.42, 0.88; ptrend = 0.015). Conclusion: Bitter, sweet/sour, neutral, and fat tasting food intakes were not significantly associated with CVD mortality. This study implies that taste of foods should be taken into account when studying predictors for risk of CVD mortality.</t>
+  </si>
+  <si>
+    <t>Niswah I., Van Langeveld A., Teo P.S., Geleijnse J.M., Mars M.</t>
+  </si>
+  <si>
+    <t>Annals of Nutrition and Metabolism</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>10.1159/000501751</t>
+  </si>
+  <si>
+    <t>The effect of low and high salt diets on oral glucose tolerance</t>
+  </si>
+  <si>
+    <t>Iwaoka T., Umeda T., Miura F., Naomi S., Ohno M., Inoue J., Sato T.</t>
+  </si>
+  <si>
+    <t>Therapeutic Research</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Incidence of stroke in Taiwan</t>
+  </si>
+  <si>
+    <t>Background and Purpose: Few epidemiological studies concerning the incidence of stroke have been conducted in Taiwan. In an attempt to investigate this common disease, we studied the incidence of stroke in Taiwan in a prospective incidence study. Methods: A cohort of 8,562 stroke-free people were followed up for 4 years to observe new stroke occurrence. The methods of sampling the study population have been reported elsewhere. In addition to the help of local doctors, who reported the new stroke cases, we also sent public nurses to visit the study population annually to screen the new cases of stroke. Results: There were 104 (61 men and 43 women) first-ever stroke cases identified by a neurologist in a period between October 1, 1986 and December 31, 1990. The average annual incidence rate of first-ever stroke for people aged 36 years or older in this study was 330 per 100,000. Incidence rate was higher in eastern Taiwan and in rural communities. Percentages of the major types of stroke were as follows: cerebral infarction, 71%; cerebral hemorrhage, 22%; subarachnoid hemorrhage, 1%; and unclassified, 6%. The significant risk factors for stroke were hypertension and intake of food with a high sodium content. Conclusions: The age-specific incidence rates in this study are higher than those reported from the United Kingdom and the United States. The rates are close to those in a report from Japan and a report from a city in mainland China at the same latitude. Cerebral hemorrhages are more common among people in Taiwan than among Occidental people.</t>
+  </si>
+  <si>
+    <t>Hu H.-H., Sheng W.-Y., Chu F.-L., Lan C.-F., Chiang B.N.</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1241</t>
+  </si>
+  <si>
+    <t>Dietary intake of micronutrients are predictor of premenstrual syndrome, a machine learning method</t>
+  </si>
+  <si>
+    <t>Background &amp; aims: Premenstrual syndrome (PMS) is a common disorder affecting 30–40% of women of reproductive age. Many modifiable risk factors associated with PMS involve nutrition and poor eating habits. This study aims to explore the correlation between micronutrients and PMS in a group of Iranian women and to build a predictor model showing the PMS using nutritional and anthropometric variables. Methods: This is a cross-sectional study which was conducted on 223 females in Iran. Anthropometric indices were measured, including Body Mass Index (BMI) and skinfold thickness. Machine learning methods were used to assess participants' dietary intakes, Food Frequency Questionnaire (FFQ) and analyze the data. Results: After applying different variable selection techniques, we have created machine learning models such as KNN. KNN achieved 80.3% accuracy rate and 76.3% F1 score indicating that our model is a curate and valid proof to show a strong relationship between input variables (sodium intake, Skin fold thickness of suprailiac, irregular menstruation, total calorie intake, total fiber intake, trans fatty acids, painful menstruation (dysmenorrhea), total sugar intake, total fat intake, and biotin) and the output variable (PMS). We sorted these effective variables based on their 'Shapley values' and figured out that Na intake, suprailiac skinfold thickness, biotin intake, total fat intake and total sugar intake have a major impact on having PMS. Conclusions: Dietary intake and anthropometric measurements are highly associated with the occurrence of PMS, and in our model, these variables can predict PMS in women with a high accuracy rate.</t>
+  </si>
+  <si>
+    <t>Taheri R., ZareMehrjardi F., Heidarzadeh-Esfahani N., Hughes J.A., Reid R.E.R., Borghei M., Ardekani F.M., Shahraki H.R.</t>
+  </si>
+  <si>
+    <t>Clinical Nutrition ESPEN</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>10.1016/j.clnesp.2023.02.011</t>
+  </si>
+  <si>
+    <t>Heterogeneity of Cardiorenal Characteristics in Normotensive Subjects</t>
+  </si>
+  <si>
+    <t>Blood pressure is a marker of elevated risk for cardiovascular disease, even within the normotensive range. The present study evaluates cardiorenal modifications observed in normotensive (&lt;140/90 mm Hg) subjects. Using World Health Organization-International Society of Hypertension definitions, 265 normotensive subjects were categorized as having optimal (n=73), normal (n=84), and high-normal (n=108) blood pressure. Renal hemodynamics and function and cardiac morphology were evaluated by isotopic clearance techniques and ultrasonography, respectively. Urinary albumin excretion was measured in 24-hour urine collections. Body mass index and 24-hour urinary sodium (estimate of sodium intake), as well as left ventricular mass index, relative wall thickness, and glomerular filtration rate and filtration fraction, progressively increased in the optimal to high-normal groups. In contrast, effective renal plasma flow remained constant. Albuminuria was similar in all groups. Of interest, the proportion of subjects with concentric pattern of cardiac geometry (relative wall thickness ≥0.44) increased from 7% in optimal to 13% and 20% in normal and high-normal groups, respectively (P&lt;0.05). Within this normotensive range of blood pressure, left ventricular mass index and relative wall thickness but not albuminuria were linearly correlated to systolic blood pressure; however, no correlation with diastolic blood pressure was found. In conclusion, changes in cardiac geometry and renal hemodynamics (increase in glomerular filtration rate and filtration fraction, an approximate index of glomerular pressure) that could predispose to cardiovascular morbidity and renal risk are already present in normotensive subjects with blood pressure higher than 120/80 mm Hg.</t>
+  </si>
+  <si>
+    <t>Fesler P., Du Cailar G., Ribstein J., Mimran A.</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2 I</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>10.1161/01.HYP.0000109321.76818.14</t>
   </si>
 </sst>
 </file>
@@ -323,7 +857,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -341,15 +875,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -411,45 +945,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency 2" xfId="1" xr:uid="{A1A42C69-60BE-47A1-9BA8-7E8F213BD3D5}"/>
+    <cellStyle name="Currency 3" xfId="2" xr:uid="{F5806C51-98B3-4E34-8FD0-639340584C2A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -747,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -788,374 +1324,374 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7">
         <v>10001</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7">
         <v>10002</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7">
         <v>10003</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7">
         <v>10004</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7">
         <v>10005</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7">
         <v>10006</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7">
         <v>10007</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7">
         <v>10008</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>93</v>
@@ -1164,7 +1700,7 @@
         <v>94</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>95</v>
@@ -1173,13 +1709,1323 @@
         <v>96</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10009</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10010</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10011</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10012</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10013</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10014</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10015</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7">
+        <v>10016</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10017</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7">
+        <v>10018</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7">
+        <v>10002</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7">
+        <v>10003</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>10010</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
+        <v>10017</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7">
+        <v>10018</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7">
+        <v>10020</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10029</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7">
+        <v>10047</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7">
+        <v>10055</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7">
+        <v>10058</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10068</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="7">
+        <v>10076</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7">
+        <v>10077</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7">
+        <v>10085</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7">
+        <v>10090</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="7">
+        <v>10102</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="7">
+        <v>10107</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
